--- a/SP_PJ_Gantt Chart.xlsx
+++ b/SP_PJ_Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\최준영\학교\과제, 실습\2학년 2학기 (2019)\시스템 프로그래밍(홍석인)\Team Project\SP_2019_2_team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F387C82C-23EA-4080-B7EB-F1A24145CD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480138B-B735-4EF5-AF7F-B0D800FBFD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB958A03-0A66-40B3-8223-E1761A54BA9C}"/>
+    <workbookView xWindow="75" yWindow="960" windowWidth="20400" windowHeight="11850" xr2:uid="{CB958A03-0A66-40B3-8223-E1761A54BA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,27 +203,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,119 +596,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1026,7 @@
   <dimension ref="C3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,10 +1042,10 @@
   <sheetData>
     <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1089,32 +1071,32 @@
       </c>
     </row>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1129,7 +1111,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1144,7 +1126,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1139,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1172,7 +1154,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="29"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1167,7 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="29"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
@@ -1198,7 +1180,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="29"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1193,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="31"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1206,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1239,7 +1221,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="31"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
@@ -1252,7 +1234,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1267,7 +1249,7 @@
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="32"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
@@ -1279,18 +1261,17 @@
       <c r="J17" s="24"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="21" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H22" s="33"/>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SP_PJ_Gantt Chart.xlsx
+++ b/SP_PJ_Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\최준영\학교\과제, 실습\2학년 2학기 (2019)\시스템 프로그래밍(홍석인)\Team Project\SP_2019_2_team1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480138B-B735-4EF5-AF7F-B0D800FBFD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD753FC8-E8E6-4E12-9186-BED89C0325AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="960" windowWidth="20400" windowHeight="11850" xr2:uid="{CB958A03-0A66-40B3-8223-E1761A54BA9C}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="20400" windowHeight="11850" xr2:uid="{CB958A03-0A66-40B3-8223-E1761A54BA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -399,13 +399,209 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -413,26 +609,63 @@
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -442,149 +675,8 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -596,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,52 +728,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -690,13 +776,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,7 +788,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3BFEEF-2DFB-4B3B-8260-85B962F35454}">
-  <dimension ref="C3:K22"/>
+  <dimension ref="C3:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1161,10 @@
   <sheetData>
     <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1071,38 +1190,38 @@
       </c>
     </row>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1111,14 +1230,14 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1126,12 +1245,12 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="34"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1139,37 +1258,39 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="35"/>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="35"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1180,9 +1301,9 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="35"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1193,50 +1314,48 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="34"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="41"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="18"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="22"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="34"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="11"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="C16" s="32"/>
       <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1244,12 +1363,12 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="25"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="36"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
@@ -1258,20 +1377,22 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="6"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="H22" s="3"/>
     </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="5">
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
